--- a/diagrams/refereeDownSignal/RefereesDown.xlsx
+++ b/diagrams/refereeDownSignal/RefereesDown.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\src\main\resources\devices\biy\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\diagrams\refereeDownSignal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{92240AFC-E0EB-4DB1-AF74-2DD548F6A618}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D103A8-B03F-4861-9324-00511CB2EE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="110" uniqueCount="45">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
   <si>
     <t>pin</t>
   </si>
@@ -135,9 +135,6 @@
     <t>refbox/decision</t>
   </si>
   <si>
-    <t>1000 200 200</t>
-  </si>
-  <si>
     <t>TONE</t>
   </si>
   <si>
@@ -147,12 +144,6 @@
     <t>Down sound A1</t>
   </si>
   <si>
-    <t>C6,250,PAUSE,125,C6,250</t>
-  </si>
-  <si>
-    <t>C4,250,C5,250,PAUSE,250,C4,250,C5,250</t>
-  </si>
-  <si>
     <t>button</t>
   </si>
   <si>
@@ -169,6 +160,24 @@
   </si>
   <si>
     <t>ignore A5</t>
+  </si>
+  <si>
+    <t>1800,200,100 - 10,11</t>
+  </si>
+  <si>
+    <t>1250,250,250</t>
+  </si>
+  <si>
+    <t>C6,250,D6,250,PAUSE,250,C6,250,D6,250</t>
+  </si>
+  <si>
+    <t>1800,200,100 - 6,7</t>
+  </si>
+  <si>
+    <t>1800,200,100 - 3,2</t>
+  </si>
+  <si>
+    <t>fop/teststartup</t>
   </si>
 </sst>
 </file>
@@ -616,7 +625,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme 2013 - 2022" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -624,10 +633,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593FC154-758F-4104-A30E-11A530E91792}">
-  <dimension ref="A1:I31"/>
+  <dimension ref="A1:I33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B1" sqref="B1:B1048576"/>
+      <selection sqref="A1:I33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -652,7 +661,7 @@
         <v>0</v>
       </c>
       <c r="C1" s="13" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="D1" s="13" t="s">
         <v>8</v>
@@ -664,7 +673,7 @@
         <v>24</v>
       </c>
       <c r="G1" s="16" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
       <c r="H1" s="13" t="s">
         <v>1</v>
@@ -690,27 +699,27 @@
         <v>26</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="3" spans="1:9">
       <c r="A3" s="1" t="s">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="B3" s="23">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="C3" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D3" s="1">
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F3" s="3" t="s">
-        <v>33</v>
+        <v>42</v>
       </c>
     </row>
     <row r="4" spans="1:9">
@@ -746,22 +755,22 @@
     </row>
     <row r="6" spans="1:9">
       <c r="A6" s="1" t="s">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="B6" s="23">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="C6" s="6" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D6" s="1">
         <v>1</v>
       </c>
       <c r="E6" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F6" s="3" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="30">
@@ -778,10 +787,10 @@
         <v>1</v>
       </c>
       <c r="E7" s="2" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
     </row>
     <row r="8" spans="1:9">
@@ -835,7 +844,7 @@
         <v>26</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="7"/>
@@ -843,22 +852,22 @@
     </row>
     <row r="11" spans="1:9" s="12" customFormat="1">
       <c r="A11" s="7" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="B11" s="24">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D11" s="7">
         <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>33</v>
+        <v>45</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="7"/>
@@ -906,22 +915,22 @@
     </row>
     <row r="14" spans="1:9" s="12" customFormat="1">
       <c r="A14" s="7" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B14" s="24">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="D14" s="7">
         <v>2</v>
       </c>
       <c r="E14" s="9" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F14" s="10" t="s">
-        <v>37</v>
+        <v>43</v>
       </c>
       <c r="G14" s="11"/>
       <c r="H14" s="7"/>
@@ -941,10 +950,10 @@
         <v>2</v>
       </c>
       <c r="E15" s="9" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>38</v>
+        <v>44</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="7"/>
@@ -960,9 +969,7 @@
       <c r="C16" s="7"/>
       <c r="D16" s="7"/>
       <c r="E16" s="9"/>
-      <c r="F16" s="10" t="s">
-        <v>33</v>
-      </c>
+      <c r="F16" s="10"/>
       <c r="G16" s="11" t="s">
         <v>2</v>
       </c>
@@ -1011,18 +1018,18 @@
         <v>26</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="19" spans="1:9">
       <c r="A19" s="1" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="B19" s="23">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C19" s="6" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="D19" s="1">
         <v>3</v>
@@ -1031,7 +1038,7 @@
         <v>26</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>33</v>
+        <v>46</v>
       </c>
     </row>
     <row r="20" spans="1:9">
@@ -1067,156 +1074,168 @@
     </row>
     <row r="22" spans="1:9">
       <c r="A22" s="1" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B22" s="23">
-        <v>4</v>
-      </c>
-      <c r="C22" s="6" t="s">
-        <v>27</v>
-      </c>
-      <c r="D22" s="1">
-        <v>3</v>
+        <v>5</v>
+      </c>
+      <c r="C22" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E22" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9" ht="30">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="23" spans="1:9">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="23">
         <v>4</v>
       </c>
-      <c r="C23" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D23" s="1">
-        <v>3</v>
+      <c r="C23" s="1" t="s">
+        <v>47</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>34</v>
+        <v>26</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>38</v>
+        <v>46</v>
       </c>
     </row>
     <row r="24" spans="1:9">
       <c r="A24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="B24" s="23">
+        <v>5</v>
+      </c>
+      <c r="C24" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D24" s="1">
+        <v>3</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>26</v>
+      </c>
+      <c r="F24" s="3" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="25" spans="1:9" ht="30">
+      <c r="A25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B25" s="23">
+        <v>4</v>
+      </c>
+      <c r="C25" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D25" s="1">
+        <v>3</v>
+      </c>
+      <c r="E25" s="2" t="s">
+        <v>33</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="26" spans="1:9" s="12" customFormat="1">
+      <c r="A26" s="1" t="s">
         <v>20</v>
       </c>
-      <c r="B24" s="23">
+      <c r="B26" s="23">
         <v>3</v>
       </c>
-      <c r="G24" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H24" s="1" t="s">
+      <c r="C26" s="1"/>
+      <c r="D26" s="1"/>
+      <c r="E26" s="2"/>
+      <c r="F26" s="3"/>
+      <c r="G26" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H26" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I24" s="1" t="s">
+      <c r="I26" s="1" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:9">
-      <c r="A25" s="1" t="s">
+    <row r="27" spans="1:9" s="12" customFormat="1">
+      <c r="A27" s="1" t="s">
         <v>22</v>
       </c>
-      <c r="B25" s="23">
-        <v>2</v>
-      </c>
-      <c r="G25" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H25" s="1" t="s">
+      <c r="B27" s="23">
+        <v>2</v>
+      </c>
+      <c r="C27" s="1"/>
+      <c r="D27" s="1"/>
+      <c r="E27" s="2"/>
+      <c r="F27" s="3"/>
+      <c r="G27" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H27" s="1" t="s">
         <v>32</v>
       </c>
-      <c r="I25" s="1" t="s">
+      <c r="I27" s="1" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="26" spans="1:9" s="12" customFormat="1">
-      <c r="A26" s="7" t="s">
+    <row r="28" spans="1:9" customFormat="1">
+      <c r="A28" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B28" s="23">
+        <v>14</v>
+      </c>
+      <c r="C28" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D28" s="7"/>
+      <c r="E28" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F28" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G28" s="11"/>
+      <c r="H28" s="7"/>
+      <c r="I28" s="7"/>
+    </row>
+    <row r="29" spans="1:9" customFormat="1">
+      <c r="A29" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="B26" s="23">
-        <v>14</v>
-      </c>
-      <c r="C26" s="7" t="s">
+      <c r="B29" s="23">
+        <v>15</v>
+      </c>
+      <c r="C29" s="7" t="s">
         <v>31</v>
       </c>
-      <c r="D26" s="7"/>
-      <c r="E26" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F26" s="10">
-        <v>2000</v>
-      </c>
-      <c r="G26" s="11"/>
-      <c r="H26" s="7"/>
-      <c r="I26" s="7"/>
-    </row>
-    <row r="27" spans="1:9" s="12" customFormat="1">
-      <c r="A27" s="7" t="s">
-        <v>36</v>
-      </c>
-      <c r="B27" s="23">
-        <v>15</v>
-      </c>
-      <c r="C27" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D27" s="7"/>
-      <c r="E27" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27" s="10">
+      <c r="D29" s="7"/>
+      <c r="E29" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F29" s="10">
         <v>1000</v>
       </c>
-      <c r="G27" s="11"/>
-      <c r="H27" s="7"/>
-      <c r="I27" s="7"/>
-    </row>
-    <row r="28" spans="1:9" customFormat="1">
-      <c r="A28" s="18" t="s">
-        <v>41</v>
-      </c>
-      <c r="B28" s="19">
-        <v>16</v>
-      </c>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="20"/>
-      <c r="F28" s="21"/>
-      <c r="G28" s="21"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-    </row>
-    <row r="29" spans="1:9" customFormat="1">
-      <c r="A29" s="18" t="s">
-        <v>42</v>
-      </c>
-      <c r="B29" s="19">
-        <v>17</v>
-      </c>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="20"/>
-      <c r="F29" s="21"/>
-      <c r="G29" s="21"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
+      <c r="G29" s="11"/>
+      <c r="H29" s="7"/>
+      <c r="I29" s="7"/>
     </row>
     <row r="30" spans="1:9" customFormat="1">
       <c r="A30" s="18" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="B30" s="19">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -1228,10 +1247,10 @@
     </row>
     <row r="31" spans="1:9" customFormat="1">
       <c r="A31" s="18" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="B31" s="19">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -1241,7 +1260,40 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
     </row>
+    <row r="32" spans="1:9">
+      <c r="A32" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B32" s="19">
+        <v>18</v>
+      </c>
+      <c r="C32" s="18"/>
+      <c r="D32" s="18"/>
+      <c r="E32" s="20"/>
+      <c r="F32" s="21"/>
+      <c r="G32" s="21"/>
+      <c r="H32" s="18"/>
+      <c r="I32" s="18"/>
+    </row>
+    <row r="33" spans="1:9">
+      <c r="A33" s="18" t="s">
+        <v>41</v>
+      </c>
+      <c r="B33" s="19">
+        <v>19</v>
+      </c>
+      <c r="C33" s="18"/>
+      <c r="D33" s="18"/>
+      <c r="E33" s="20"/>
+      <c r="F33" s="21"/>
+      <c r="G33" s="21"/>
+      <c r="H33" s="18"/>
+      <c r="I33" s="18"/>
+    </row>
   </sheetData>
+  <sortState xmlns:xlrd2="http://schemas.microsoft.com/office/spreadsheetml/2017/richdata2" ref="A2:I9">
+    <sortCondition ref="C2:C9"/>
+  </sortState>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" verticalDpi="0" r:id="rId1"/>

--- a/diagrams/refereeDownSignal/RefereesDown.xlsx
+++ b/diagrams/refereeDownSignal/RefereesDown.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Dev\git\owlcms-firmata\diagrams\refereeDownSignal\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F3D103A8-B03F-4861-9324-00511CB2EE99}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{60C8F485-52E5-4B6F-A69F-4223732CD3E4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
+    <workbookView xWindow="-23148" yWindow="-108" windowWidth="23256" windowHeight="14616" xr2:uid="{F9C8F068-60C0-4FDD-8C1E-880F519290ED}"/>
   </bookViews>
   <sheets>
     <sheet name="Referee" sheetId="1" r:id="rId1"/>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="118" uniqueCount="51">
   <si>
     <t>pin</t>
   </si>
@@ -168,16 +168,25 @@
     <t>1250,250,250</t>
   </si>
   <si>
-    <t>C6,250,D6,250,PAUSE,250,C6,250,D6,250</t>
-  </si>
-  <si>
     <t>1800,200,100 - 6,7</t>
   </si>
   <si>
     <t>1800,200,100 - 3,2</t>
   </si>
   <si>
-    <t>fop/teststartup</t>
+    <t>comment</t>
+  </si>
+  <si>
+    <t>This assumes an active buzzer</t>
+  </si>
+  <si>
+    <t>C7,500,PAUSE,250,C7,500</t>
+  </si>
+  <si>
+    <t>This should work even on an active buzzer</t>
+  </si>
+  <si>
+    <t>1250,500,250</t>
   </si>
 </sst>
 </file>
@@ -633,10 +642,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{593FC154-758F-4104-A30E-11A530E91792}">
-  <dimension ref="A1:I33"/>
+  <dimension ref="A1:J33"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:I33"/>
+      <selection activeCell="C21" sqref="C21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -653,7 +662,7 @@
     <col min="10" max="16384" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" s="17" customFormat="1" ht="15.75" thickBot="1">
+    <row r="1" spans="1:10" s="17" customFormat="1" ht="15.75" thickBot="1">
       <c r="A1" s="13" t="s">
         <v>4</v>
       </c>
@@ -681,8 +690,11 @@
       <c r="I1" s="13" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="2" spans="1:9">
+      <c r="J1" s="17" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10">
       <c r="A2" s="1" t="s">
         <v>5</v>
       </c>
@@ -702,7 +714,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="3" spans="1:9">
+    <row r="3" spans="1:10">
       <c r="A3" s="1" t="s">
         <v>6</v>
       </c>
@@ -716,13 +728,16 @@
         <v>1</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F3" s="3" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="4" spans="1:9">
+      <c r="J3" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10">
       <c r="A4" s="1" t="s">
         <v>5</v>
       </c>
@@ -736,7 +751,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="5" spans="1:9">
+    <row r="5" spans="1:10">
       <c r="A5" s="1" t="s">
         <v>5</v>
       </c>
@@ -753,7 +768,7 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="6" spans="1:9">
+    <row r="6" spans="1:10">
       <c r="A6" s="1" t="s">
         <v>5</v>
       </c>
@@ -773,7 +788,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:9" ht="30">
+    <row r="7" spans="1:10">
       <c r="A7" s="1" t="s">
         <v>6</v>
       </c>
@@ -790,10 +805,13 @@
         <v>33</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="8" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J7" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10">
       <c r="A8" s="1" t="s">
         <v>7</v>
       </c>
@@ -810,7 +828,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="9" spans="1:9">
+    <row r="9" spans="1:10">
       <c r="A9" s="1" t="s">
         <v>10</v>
       </c>
@@ -827,7 +845,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:9" s="12" customFormat="1">
+    <row r="10" spans="1:10" s="12" customFormat="1">
       <c r="A10" s="7" t="s">
         <v>12</v>
       </c>
@@ -844,13 +862,13 @@
         <v>26</v>
       </c>
       <c r="F10" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G10" s="11"/>
       <c r="H10" s="7"/>
       <c r="I10" s="7"/>
     </row>
-    <row r="11" spans="1:9" s="12" customFormat="1">
+    <row r="11" spans="1:10" s="12" customFormat="1">
       <c r="A11" s="7" t="s">
         <v>13</v>
       </c>
@@ -864,16 +882,19 @@
         <v>2</v>
       </c>
       <c r="E11" s="9" t="s">
-        <v>33</v>
+        <v>26</v>
       </c>
       <c r="F11" s="10" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="G11" s="11"/>
       <c r="H11" s="7"/>
       <c r="I11" s="7"/>
-    </row>
-    <row r="12" spans="1:9" s="12" customFormat="1">
+      <c r="J11" s="12" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" s="12" customFormat="1">
       <c r="A12" s="7" t="s">
         <v>12</v>
       </c>
@@ -892,7 +913,7 @@
       <c r="H12" s="7"/>
       <c r="I12" s="7"/>
     </row>
-    <row r="13" spans="1:9" s="12" customFormat="1">
+    <row r="13" spans="1:10" s="12" customFormat="1">
       <c r="A13" s="7" t="s">
         <v>12</v>
       </c>
@@ -913,7 +934,7 @@
       <c r="H13" s="7"/>
       <c r="I13" s="7"/>
     </row>
-    <row r="14" spans="1:9" s="12" customFormat="1">
+    <row r="14" spans="1:10" s="12" customFormat="1">
       <c r="A14" s="7" t="s">
         <v>12</v>
       </c>
@@ -936,7 +957,7 @@
       <c r="H14" s="7"/>
       <c r="I14" s="7"/>
     </row>
-    <row r="15" spans="1:9" s="12" customFormat="1" ht="30">
+    <row r="15" spans="1:10" s="12" customFormat="1">
       <c r="A15" s="7" t="s">
         <v>13</v>
       </c>
@@ -953,13 +974,16 @@
         <v>33</v>
       </c>
       <c r="F15" s="10" t="s">
-        <v>44</v>
+        <v>48</v>
       </c>
       <c r="G15" s="11"/>
       <c r="H15" s="7"/>
       <c r="I15" s="7"/>
-    </row>
-    <row r="16" spans="1:9" s="12" customFormat="1">
+      <c r="J15" s="12" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" s="12" customFormat="1">
       <c r="A16" s="7" t="s">
         <v>14</v>
       </c>
@@ -980,7 +1004,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="17" spans="1:9" s="12" customFormat="1">
+    <row r="17" spans="1:10" s="12" customFormat="1">
       <c r="A17" s="7" t="s">
         <v>15</v>
       </c>
@@ -1001,7 +1025,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="18" spans="1:9">
+    <row r="18" spans="1:10">
       <c r="A18" s="1" t="s">
         <v>18</v>
       </c>
@@ -1018,10 +1042,10 @@
         <v>26</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="19" spans="1:9">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10">
       <c r="A19" s="1" t="s">
         <v>19</v>
       </c>
@@ -1038,10 +1062,13 @@
         <v>26</v>
       </c>
       <c r="F19" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="20" spans="1:9">
+        <v>45</v>
+      </c>
+      <c r="J19" s="5" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10">
       <c r="A20" s="1" t="s">
         <v>18</v>
       </c>
@@ -1055,7 +1082,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="21" spans="1:9">
+    <row r="21" spans="1:10">
       <c r="A21" s="1" t="s">
         <v>18</v>
       </c>
@@ -1072,170 +1099,161 @@
         <v>1000</v>
       </c>
     </row>
-    <row r="22" spans="1:9">
+    <row r="22" spans="1:10">
       <c r="A22" s="1" t="s">
         <v>18</v>
       </c>
       <c r="B22" s="23">
         <v>5</v>
       </c>
-      <c r="C22" s="1" t="s">
-        <v>47</v>
+      <c r="C22" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D22" s="1">
+        <v>3</v>
       </c>
       <c r="E22" s="2" t="s">
         <v>26</v>
       </c>
       <c r="F22" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="23" spans="1:9">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10">
       <c r="A23" s="1" t="s">
         <v>19</v>
       </c>
       <c r="B23" s="23">
         <v>4</v>
       </c>
-      <c r="C23" s="1" t="s">
-        <v>47</v>
+      <c r="C23" s="6" t="s">
+        <v>28</v>
+      </c>
+      <c r="D23" s="1">
+        <v>3</v>
       </c>
       <c r="E23" s="2" t="s">
-        <v>26</v>
+        <v>33</v>
       </c>
       <c r="F23" s="3" t="s">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="24" spans="1:9">
+        <v>48</v>
+      </c>
+      <c r="J23" s="5" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10">
       <c r="A24" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="B24" s="23">
+        <v>3</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I24" s="1" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10">
+      <c r="A25" s="1" t="s">
+        <v>22</v>
+      </c>
+      <c r="B25" s="23">
+        <v>2</v>
+      </c>
+      <c r="G25" s="4" t="s">
+        <v>2</v>
+      </c>
+      <c r="H25" s="1" t="s">
+        <v>32</v>
+      </c>
+      <c r="I25" s="1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" s="12" customFormat="1">
+      <c r="A26" s="7" t="s">
+        <v>34</v>
+      </c>
+      <c r="B26" s="23">
+        <v>14</v>
+      </c>
+      <c r="C26" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D26" s="7"/>
+      <c r="E26" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F26" s="10">
+        <v>2000</v>
+      </c>
+      <c r="G26" s="11"/>
+      <c r="H26" s="7"/>
+      <c r="I26" s="7"/>
+    </row>
+    <row r="27" spans="1:10" s="12" customFormat="1">
+      <c r="A27" s="7" t="s">
+        <v>35</v>
+      </c>
+      <c r="B27" s="23">
+        <v>15</v>
+      </c>
+      <c r="C27" s="7" t="s">
+        <v>31</v>
+      </c>
+      <c r="D27" s="7"/>
+      <c r="E27" s="9" t="s">
+        <v>2</v>
+      </c>
+      <c r="F27" s="10">
+        <v>1000</v>
+      </c>
+      <c r="G27" s="11"/>
+      <c r="H27" s="7"/>
+      <c r="I27" s="7"/>
+    </row>
+    <row r="28" spans="1:10" customFormat="1">
+      <c r="A28" s="18" t="s">
+        <v>38</v>
+      </c>
+      <c r="B28" s="19">
+        <v>16</v>
+      </c>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="20"/>
+      <c r="F28" s="21"/>
+      <c r="G28" s="21"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+    </row>
+    <row r="29" spans="1:10" customFormat="1">
+      <c r="A29" s="18" t="s">
+        <v>39</v>
+      </c>
+      <c r="B29" s="19">
+        <v>17</v>
+      </c>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="20"/>
+      <c r="F29" s="21"/>
+      <c r="G29" s="21"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+    </row>
+    <row r="30" spans="1:10" customFormat="1">
+      <c r="A30" s="18" t="s">
+        <v>40</v>
+      </c>
+      <c r="B30" s="19">
         <v>18</v>
-      </c>
-      <c r="B24" s="23">
-        <v>5</v>
-      </c>
-      <c r="C24" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D24" s="1">
-        <v>3</v>
-      </c>
-      <c r="E24" s="2" t="s">
-        <v>26</v>
-      </c>
-      <c r="F24" s="3" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:9" ht="30">
-      <c r="A25" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B25" s="23">
-        <v>4</v>
-      </c>
-      <c r="C25" s="6" t="s">
-        <v>28</v>
-      </c>
-      <c r="D25" s="1">
-        <v>3</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="26" spans="1:9" s="12" customFormat="1">
-      <c r="A26" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B26" s="23">
-        <v>3</v>
-      </c>
-      <c r="C26" s="1"/>
-      <c r="D26" s="1"/>
-      <c r="E26" s="2"/>
-      <c r="F26" s="3"/>
-      <c r="G26" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H26" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I26" s="1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="27" spans="1:9" s="12" customFormat="1">
-      <c r="A27" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B27" s="23">
-        <v>2</v>
-      </c>
-      <c r="C27" s="1"/>
-      <c r="D27" s="1"/>
-      <c r="E27" s="2"/>
-      <c r="F27" s="3"/>
-      <c r="G27" s="4" t="s">
-        <v>2</v>
-      </c>
-      <c r="H27" s="1" t="s">
-        <v>32</v>
-      </c>
-      <c r="I27" s="1" t="s">
-        <v>23</v>
-      </c>
-    </row>
-    <row r="28" spans="1:9" customFormat="1">
-      <c r="A28" s="7" t="s">
-        <v>34</v>
-      </c>
-      <c r="B28" s="23">
-        <v>14</v>
-      </c>
-      <c r="C28" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D28" s="7"/>
-      <c r="E28" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F28" s="10">
-        <v>2000</v>
-      </c>
-      <c r="G28" s="11"/>
-      <c r="H28" s="7"/>
-      <c r="I28" s="7"/>
-    </row>
-    <row r="29" spans="1:9" customFormat="1">
-      <c r="A29" s="7" t="s">
-        <v>35</v>
-      </c>
-      <c r="B29" s="23">
-        <v>15</v>
-      </c>
-      <c r="C29" s="7" t="s">
-        <v>31</v>
-      </c>
-      <c r="D29" s="7"/>
-      <c r="E29" s="9" t="s">
-        <v>2</v>
-      </c>
-      <c r="F29" s="10">
-        <v>1000</v>
-      </c>
-      <c r="G29" s="11"/>
-      <c r="H29" s="7"/>
-      <c r="I29" s="7"/>
-    </row>
-    <row r="30" spans="1:9" customFormat="1">
-      <c r="A30" s="18" t="s">
-        <v>38</v>
-      </c>
-      <c r="B30" s="19">
-        <v>16</v>
       </c>
       <c r="C30" s="18"/>
       <c r="D30" s="18"/>
@@ -1245,12 +1263,12 @@
       <c r="H30" s="18"/>
       <c r="I30" s="18"/>
     </row>
-    <row r="31" spans="1:9" customFormat="1">
+    <row r="31" spans="1:10" customFormat="1">
       <c r="A31" s="18" t="s">
-        <v>39</v>
+        <v>41</v>
       </c>
       <c r="B31" s="19">
-        <v>17</v>
+        <v>19</v>
       </c>
       <c r="C31" s="18"/>
       <c r="D31" s="18"/>
@@ -1260,7 +1278,7 @@
       <c r="H31" s="18"/>
       <c r="I31" s="18"/>
     </row>
-    <row r="32" spans="1:9">
+    <row r="32" spans="1:10">
       <c r="A32" s="18" t="s">
         <v>40</v>
       </c>
